--- a/LF/PreTAS/Ivory Coast/2023/ci_lf_pretas_1_site_202302.xlsx
+++ b/LF/PreTAS/Ivory Coast/2023/ci_lf_pretas_1_site_202302.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97438400-3A14-4F87-9CFC-3471682E471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C2D284-7E75-4FA5-A062-09DF6DDFDF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="179">
   <si>
     <t>type</t>
   </si>
@@ -554,9 +554,6 @@
     <t>MEBIFON (114)</t>
   </si>
   <si>
-    <t>N'CHONONKOI (115)</t>
-  </si>
-  <si>
     <t>TAHIBLY (116)</t>
   </si>
   <si>
@@ -567,6 +564,12 @@
   </si>
   <si>
     <t>WENEDOUGOU (119)</t>
+  </si>
+  <si>
+    <t>N.CHONONKOI</t>
+  </si>
+  <si>
+    <t>N.CHONONKOI (115)</t>
   </si>
 </sst>
 </file>
@@ -1618,8 +1621,8 @@
   <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" activeCellId="1" sqref="A51:XFD51 A53:XFD53"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2282,13 +2285,13 @@
         <v>99</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>139</v>
+        <v>177</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" t="s">
@@ -3013,7 +3016,7 @@
       </c>
       <c r="E75" s="3"/>
       <c r="G75" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3383,10 +3386,10 @@
         <v>115</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D95" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F95" t="s">
         <v>138</v>
@@ -3403,10 +3406,10 @@
         <v>116</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F96" t="s">
         <v>134</v>
@@ -3423,10 +3426,10 @@
         <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F97" t="s">
         <v>134</v>
@@ -3443,10 +3446,10 @@
         <v>118</v>
       </c>
       <c r="C98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F98" t="s">
         <v>127</v>
@@ -3463,10 +3466,10 @@
         <v>119</v>
       </c>
       <c r="C99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F99" t="s">
         <v>152</v>
@@ -3645,7 +3648,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3669,7 +3672,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B2" t="s">
